--- a/20200506 log特征.xlsx
+++ b/20200506 log特征.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,6 +37,206 @@
   </si>
   <si>
     <t>路径/目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/log/messages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ubuntu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/log/messages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/log/syslog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统 基本日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out of memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out of memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dmesg </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /var/log/dmesg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error | Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS: 不要 区分大小写,都要抓取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centos|ubuntu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/log/syslog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/log/kernel.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核 基本日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤 Interrupt 。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/log/php7.0-fpm.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php-fpm | php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/log/apache2/error.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apache2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/log/httpd/error_log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./nginx/logs/error.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emerg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php服务日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apache2日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apache日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFS *** too many</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFS  *** too many</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemctl status mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemctl status mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/log/mysql/error.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -44,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +266,32 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -102,12 +321,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -414,392 +642,706 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="2" customWidth="1"/>
-    <col min="5" max="6" width="19" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="2" customWidth="1"/>
+    <col min="5" max="6" width="32.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -808,8 +1350,9 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -818,8 +1361,9 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -828,8 +1372,9 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -838,8 +1383,9 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -848,8 +1394,9 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -858,8 +1405,9 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -868,8 +1416,9 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -878,8 +1427,9 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -888,8 +1438,9 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -898,8 +1449,9 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -908,8 +1460,9 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -918,8 +1471,9 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -928,8 +1482,9 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -938,8 +1493,9 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -948,8 +1504,9 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -958,8 +1515,9 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -968,8 +1526,9 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -978,8 +1537,9 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -988,8 +1548,9 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -998,8 +1559,9 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1008,8 +1570,9 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1018,8 +1581,9 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1028,8 +1592,9 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1038,118 +1603,133 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
